--- a/data/evaluation/evaluation_North_Summer_Watermelons.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Watermelons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11058.21378392383</v>
+        <v>11280.6382569082</v>
       </c>
       <c r="C4" t="n">
-        <v>175321544.9959853</v>
+        <v>178949545.0666723</v>
       </c>
       <c r="D4" t="n">
-        <v>13240.90423634222</v>
+        <v>13377.20243797904</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06614770000928938</v>
+        <v>-0.08820992819171325</v>
       </c>
     </row>
     <row r="5">
